--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T08:28:19+00:00</t>
+    <t>2024-05-28T06:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T06:35:41+00:00</t>
+    <t>2024-05-28T08:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:58:35+00:00</t>
+    <t>2024-05-28T14:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:23:58+00:00</t>
+    <t>2024-05-29T09:10:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Detail type of activity</t>
+  </si>
+  <si>
+    <t>https://hi.iv.elga.gv.at/ValueSet/education</t>
   </si>
   <si>
     <t>PlanOfCare-ips.activity.status</t>
@@ -3332,13 +3335,11 @@
         <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>71</v>
@@ -3373,10 +3374,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3402,10 +3403,10 @@
         <v>142</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>71</v>
@@ -3454,7 +3455,7 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -3471,10 +3472,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3497,13 +3498,13 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3554,7 +3555,7 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
@@ -3571,10 +3572,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3600,10 +3601,10 @@
         <v>126</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3654,7 +3655,7 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>

--- a/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
+++ b/r4-ELGA-IV-Herzinsuffizienz-main/StructureDefinition-PlanOfCare-ips.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:10:17+00:00</t>
+    <t>2024-05-29T09:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
